--- a/12.03.2021.xlsx
+++ b/12.03.2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAEKHYUN\Desktop\Git_hub\컴활\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAEKHYUN\Desktop\Git_hub\Computer_Literacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED54E5-43C4-4D81-ACD5-9D10511AB75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFE1DC7-8B1F-46C4-AA82-DA13882204E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{822DF295-9E71-4697-A0FF-CAF82767FA39}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="5" xr2:uid="{822DF295-9E71-4697-A0FF-CAF82767FA39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,8 +45,8 @@
     <numFmt numFmtId="176" formatCode="0.0%;&quot;*&quot;;&quot;*&quot;"/>
     <numFmt numFmtId="177" formatCode="[Red][&gt;=300]0&quot;개&quot;;[Blue][&gt;=200]0&quot;개&quot;;0&quot;개&quot;"/>
     <numFmt numFmtId="178" formatCode="#,000.00"/>
-    <numFmt numFmtId="180" formatCode="#,###;[Red]&quot;▣&quot;\ #,###;0;&quot;※&quot;"/>
-    <numFmt numFmtId="182" formatCode="[Red][&gt;=0.2]&quot;★&quot;0%;[Blue][&lt;=0.15]&quot;☆&quot;0%;0%"/>
+    <numFmt numFmtId="179" formatCode="#,###;[Red]&quot;▣&quot;\ #,###;0;&quot;※&quot;"/>
+    <numFmt numFmtId="180" formatCode="[Red][&gt;=0.2]&quot;★&quot;0%;[Blue][&lt;=0.15]&quot;☆&quot;0%;0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,14 +121,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,14 +535,14 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
@@ -640,64 +641,64 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -710,76 +711,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541C6885-0723-4605-8B32-95B89426B201}">
   <dimension ref="G3:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017F8CD4-8FEC-49D9-9B92-22B00FADB275}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>